--- a/Tabela_geral_Actualizada.xlsx
+++ b/Tabela_geral_Actualizada.xlsx
@@ -121,7 +121,7 @@
     <t xml:space="preserve">Bombus</t>
   </si>
   <si>
-    <t xml:space="preserve">Bombus_atractus</t>
+    <t xml:space="preserve">Bombus_pauloensis</t>
   </si>
   <si>
     <t xml:space="preserve">AU_102.WAV</t>
@@ -532,7 +532,7 @@
   <dimension ref="A1:L326"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C327" activeCellId="0" sqref="C327"/>
+      <selection pane="topLeft" activeCell="C47" activeCellId="0" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
